--- a/pred_ohlcv/54_21/2019-10-22 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 LINK ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>38338.3168030318</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>38338.3168030318</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>38518.0989030318</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>36676.1681030318</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>36733.2664030318</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>36823.17080691124</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>42208.49407262736</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>43125.07730691125</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>46802.00020691125</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>48443.06360691124</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>59750.22264947795</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>57466.70926373657</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>54644.89586373657</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>54644.89586373657</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>55630.19256373657</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>74238.75406373656</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>74238.75406373656</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>74238.75406373656</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>74238.75406373656</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>73136.59776373656</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>73136.59776373656</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>72241.67716373656</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>83999.84386373656</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>82526.87856373657</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>82526.87856373657</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>86153.12306373657</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>83700.24066373656</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>83700.24066373656</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>83700.24066373656</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>76493.08599186561</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>79446.6118918656</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>78328.0499918656</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>79025.16729186561</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>81416.21389186561</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>100813.183211363</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>100715.983211363</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>77308.22541136299</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>77308.22541136299</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>77331.77901136299</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>77331.77901136299</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>76432.27281136299</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>76964.75811136299</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>76907.45811136298</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>76907.45811136298</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>76907.45811136298</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>74246.90691136298</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>73176.05491136298</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>73376.35491136299</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>73627.76931136298</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>74950.05961136297</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>74798.00221136297</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>74967.56101136297</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>72177.40321136297</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>73485.46051136297</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>73667.66051136296</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>72856.54321136296</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>71611.14281136297</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>69819.21391136297</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>69819.21391136297</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>69983.26721136297</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>69762.51321136297</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>69709.51331136297</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>69709.51331136297</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>69463.91331136297</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>69463.91331136297</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>102787.587311363</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>98362.13781136299</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>101439.016311363</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>100906.663311363</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>100714.045411363</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>106181.828411363</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>108671.744811363</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>109171.744811363</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>109791.119111363</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>109737.990111363</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>110641.962911363</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>110128.850411363</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>110128.850411363</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>110866.047911363</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>110862.601011363</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>110336.087211363</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>110974.944411363</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>110979.990611363</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>111074.222611363</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>110012.656811363</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>110012.656811363</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>109880.206511363</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>109780.704111363</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>109846.862611363</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>108992.808611363</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>109717.613411363</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>110220.172511363</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>109271.927911363</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>109191.379211363</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>109112.885211363</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>109166.818811363</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>109022.932111363</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>109739.1644179789</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>110003.1893179789</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>110029.1125179789</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>110024.1125179789</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>105493.5766179789</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>105569.8766179789</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>105590.5537179789</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>105582.3784179789</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>105610.1784179789</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>110856.4018179789</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>110880.8837179789</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>111109.4496179789</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>111112.8631179789</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>111884.8831179789</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>111695.6727179789</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>111696.6727179789</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>122837.0222615117</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>123671.1730615117</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>122465.4276615117</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>124058.6585615117</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>123862.0481615117</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>123559.7803615117</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>123573.1803615117</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>123943.8531008043</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>124053.3531008043</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>122670.1094008043</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>122962.5599008043</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>122926.9165008043</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>122588.7099008043</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>123527.907258848</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>122653.117858848</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>122653.117858848</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>122606.117858848</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>122594.117858848</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>122487.117858848</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>120270.986858848</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>120768.986858848</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>120768.986858848</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>120653.659058848</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>120653.659058848</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>120065.125058848</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>123899.4913083644</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>123362.1408083644</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>123362.1408083644</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>122638.5079083645</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>122643.5079083645</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>122647.4065083645</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>122558.0691083644</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>122642.3774083645</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>126903.6180083644</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>126903.6180083644</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>127546.5991083644</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>127205.4295362567</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>136589.7355362567</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>144397.8430362567</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>146298.4157362567</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>146298.4157362567</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>149043.9600362567</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>149038.9600362567</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>149038.9600362567</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>149298.6600362567</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>149298.6600362567</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>149627.6798362567</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>150183.3640362567</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>148996.8152362567</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>174636.1862843025</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>175308.2684843025</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>184174.9678535143</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>184021.1649535143</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>196286.2572535143</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>194925.6535535142</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>194925.6535535142</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>194111.5099535142</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>192945.6519535142</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>192945.6519535142</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>192945.6519535142</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>193844.1773535142</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>192709.0458535143</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>190732.3423535143</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>191043.3842535143</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>196982.9597535143</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>192944.6538535143</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>190754.6087535143</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>188673.8459535143</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>188929.0907535143</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>188368.3195535143</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>188217.1755535143</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>175791.7065535143</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>178375.5904535142</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>183986.9664535142</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>190792.2279220431</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>190792.3279220431</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>190387.9741220431</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>190387.874190572</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>190175.403690572</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>190175.403690572</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>190480.8336905719</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>193069.5821905719</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>196178.2587905719</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>194333.3009115596</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>194333.3009115596</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>196582.6675115596</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>196510.6421314546</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>196510.6421314546</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>196154.9974314546</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>195799.7038314546</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>195157.7038314546</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>194617.7038314546</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>194617.7038314546</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>197140.4834314546</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>197542.5506314546</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>193348.1614314546</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>193348.1614314546</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>193018.1614314546</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>191946.9047314546</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>193040.7900314546</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>193814.6980314546</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>193624.3207314546</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>200096.8980314546</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>199824.0721314546</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>199710.3146314546</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>199710.3146314546</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>200465.4001453278</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>200465.4001453278</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>200465.4001453278</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>200465.4001453278</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>200248.2534453277</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>202446.8240453278</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>202472.8108395374</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>202472.8108395374</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>202726.010557535</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>202719.639057535</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>202719.639057535</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>202722.639057535</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>201926.087657535</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>198787.540557535</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>198791.8253814677</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>196752.7790814677</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>195569.4834814677</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>191244.1230682602</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>190950.5721049289</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>190790.5721049289</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>190864.3810049289</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>190849.2810049289</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>188183.3341049289</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>188168.3341049289</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>187052.3397049289</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>186698.6308049289</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>186699.6308049289</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>186431.2188049289</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>215626.7141676831</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>215700.7147676831</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-22 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>37220.9018576243</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>35861.06518032806</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>35664.97128032806</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>36146.70090303181</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>37405.5285030318</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>37405.5285030318</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>36700.16260303181</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>36700.16260303181</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>37231.78870303181</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>37231.78870303181</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>38178.93770303181</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>38338.3168030318</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>38338.3168030318</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>38518.0989030318</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>36676.1681030318</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>36733.2664030318</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>36823.17080691124</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>42208.49407262736</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>43125.07730691125</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>46802.00020691125</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>48443.06360691124</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>59750.22264947795</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>57466.70926373657</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>54644.89586373657</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>54644.89586373657</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>55630.19256373657</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>55004.09686373657</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>53971.75526373657</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>53178.38126373657</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>53466.83576373657</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>56642.36916373657</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>56642.36916373657</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>74238.75406373656</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>74238.75406373656</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>74238.75406373656</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>74238.75406373656</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>73136.59776373656</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>73136.59776373656</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>72241.67716373656</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>83999.84386373656</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>82526.87856373657</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>82526.87856373657</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>86153.12306373657</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>83700.24066373656</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>83700.24066373656</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>83700.24066373656</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>76493.08599186561</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>79446.6118918656</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>78328.0499918656</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>79025.16729186561</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>81416.21389186561</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>100813.183211363</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>100715.983211363</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>77308.22541136299</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>77308.22541136299</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>77331.77901136299</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>77331.77901136299</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>76432.27281136299</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>76964.75811136299</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>76907.45811136298</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>76907.45811136298</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>76907.45811136298</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>74246.90691136298</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>73176.05491136298</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>73376.35491136299</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>73627.76931136298</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>74950.05961136297</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>74798.00221136297</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>74967.56101136297</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>72177.40321136297</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>73485.46051136297</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>73667.66051136296</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>72856.54321136296</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>71611.14281136297</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>69819.21391136297</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>69819.21391136297</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>69983.26721136297</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>69762.51321136297</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>69709.51331136297</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>102787.587311363</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>104334.553011363</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>104415.284511363</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>100906.663311363</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>100714.045411363</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>106181.828411363</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>108671.744811363</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>109171.744811363</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>109164.220911363</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>109791.119111363</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>109737.990111363</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>110641.962911363</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>110128.850411363</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>111351.047911363</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>111366.047911363</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>110866.047911363</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>110862.601011363</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>110336.087211363</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>110974.944411363</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>110979.990611363</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>111074.222611363</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>110012.656811363</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>110012.656811363</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>109880.206511363</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>109780.704111363</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>109846.862611363</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>110220.172511363</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>109271.927911363</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>109191.379211363</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>109112.885211363</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>109166.818811363</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>109022.932111363</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>109739.1644179789</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>110003.1893179789</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>110029.1125179789</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>110024.1125179789</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>105493.5766179789</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>105569.8766179789</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>105590.5537179789</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>105582.3784179789</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>105610.1784179789</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>110856.4018179789</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>110880.8837179789</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>111109.4496179789</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>111112.8631179789</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>111884.8831179789</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>111695.6727179789</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>111696.6727179789</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>111696.6727179789</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>111931.3443179789</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>122837.0222615117</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>123671.1730615117</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>122465.4276615117</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>124058.6585615117</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>123862.0481615117</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>123559.7803615117</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>123573.1803615117</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>123943.8531008043</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>124053.3531008043</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>122670.1094008043</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>122962.5599008043</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>122926.9165008043</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>122588.7099008043</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>123527.907258848</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>122653.117858848</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>122653.117858848</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>122606.117858848</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>122594.117858848</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>122487.117858848</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>120270.986858848</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>120768.986858848</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>120768.986858848</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>120653.659058848</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>120653.659058848</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>120065.125058848</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>123899.4913083644</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>123362.1408083644</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>123362.1408083644</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>122638.5079083645</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>122643.5079083645</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>122647.4065083645</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>122558.0691083644</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>122642.3774083645</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>126903.6180083644</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>126903.6180083644</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>127546.5991083644</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>127205.4295362567</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>136589.7355362567</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>144397.8430362567</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>146298.4157362567</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>146298.4157362567</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>149043.9600362567</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>149038.9600362567</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>149038.9600362567</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>149298.6600362567</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>149298.6600362567</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>149627.6798362567</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>150183.3640362567</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>148996.8152362567</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>171996.0618843026</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>171139.1161843025</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>171139.1161843025</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>171139.1161843025</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>168313.1817843025</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>168301.9211843025</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>168301.9211843025</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>168306.9884843025</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>168317.7085843025</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>168317.7085843025</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>169232.3102843025</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>174636.1862843025</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>175308.2684843025</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>184174.9678535143</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>184021.1649535143</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>196286.2572535143</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>194925.6535535142</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>194925.6535535142</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>194111.5099535142</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>192945.6519535142</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>192945.6519535142</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>192945.6519535142</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>193844.1773535142</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>192709.0458535143</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>190732.3423535143</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>191043.3842535143</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>196982.9597535143</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>192944.6538535143</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>190754.6087535143</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>188673.8459535143</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>188929.0907535143</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>188368.3195535143</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>190792.2279220431</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>190387.9741220431</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>190387.874190572</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>190175.403690572</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>190175.403690572</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>190480.8336905719</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>193069.5821905719</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>196178.2587905719</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>194333.3009115596</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>194333.3009115596</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>196582.6675115596</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>196510.6421314546</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>196510.6421314546</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>196154.9974314546</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>195799.7038314546</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>195157.7038314546</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>194617.7038314546</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>194617.7038314546</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>197140.4834314546</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>197542.5506314546</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>193348.1614314546</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>193348.1614314546</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>193018.1614314546</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>191946.9047314546</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>193040.7900314546</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>193814.6980314546</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>199824.0721314546</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>199710.3146314546</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>188183.3341049289</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
